--- a/data/trans_dic/P62A$viudedad-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3451288379988736</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08175335861124146</v>
+        <v>0.08175335861124147</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1773672297464052</v>
@@ -697,7 +697,7 @@
         <v>0.1519901167139246</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1428009157510972</v>
+        <v>0.1428009157510971</v>
       </c>
     </row>
     <row r="5">
@@ -715,31 +715,31 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.1537060629649355</v>
+        <v>0.1538408819945004</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3190101395948267</v>
+        <v>0.3248528573649113</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3610127580132639</v>
+        <v>0.3643242238867194</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2650788024557165</v>
+        <v>0.2685093607096139</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05756885382890502</v>
+        <v>0.05752783311309041</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1349312142017239</v>
+        <v>0.1387746419963606</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1528756439504634</v>
+        <v>0.1582326669913399</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1154717506828594</v>
+        <v>0.1187721651210793</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1157450883816439</v>
+        <v>0.1169142788351569</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02797663811359836</v>
+        <v>0.0295423187407204</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05120328706713313</v>
+        <v>0.04870861397359242</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.2545425550404393</v>
+        <v>0.2523835032342311</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4962026126345153</v>
+        <v>0.4991214926330302</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5195629330270369</v>
+        <v>0.5203039082640316</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4305788081300979</v>
+        <v>0.4320879742151837</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1138333593335037</v>
+        <v>0.1116170241076996</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2197545614202509</v>
+        <v>0.2280463510336873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2382427911262543</v>
+        <v>0.2407956822925195</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1929981156439412</v>
+        <v>0.1987252707316867</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1746403181684307</v>
+        <v>0.1727282128347217</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.339905437885116</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07645038356197593</v>
+        <v>0.07645038356197592</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2447414501862387</v>
@@ -849,31 +849,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.111080060603951</v>
+        <v>0.1103336609474398</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5106412095937006</v>
+        <v>0.5108235360125151</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3394677324799931</v>
+        <v>0.3413339333361709</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2701514834683157</v>
+        <v>0.265140268847662</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05089804833634159</v>
+        <v>0.05218978664004883</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2007204776946416</v>
+        <v>0.2040509452085301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1527931221873457</v>
+        <v>0.1555633898274417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1159045321647557</v>
+        <v>0.1152149208229526</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09118301328607985</v>
+        <v>0.09151958626373215</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01921015939949525</v>
+        <v>0.02650025761371146</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02361732347100129</v>
+        <v>0.02094475182142586</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02107790699915287</v>
+        <v>0.0161122734679052</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031362778999074</v>
+        <v>0.2020144406667503</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6746522316114067</v>
+        <v>0.6697759100378854</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.483735634842923</v>
+        <v>0.4791298793647336</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4118420017996078</v>
+        <v>0.4108535176043279</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1074371200868965</v>
+        <v>0.1095790644394144</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2923591790065324</v>
+        <v>0.29432271397404</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2290675887971039</v>
+        <v>0.2293749077608935</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1880758233035022</v>
+        <v>0.1858354119034129</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.148771953464464</v>
+        <v>0.1456477465702975</v>
       </c>
     </row>
     <row r="10">
@@ -979,31 +979,31 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.09338367149272875</v>
+        <v>0.09070734592151346</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4024432554964673</v>
+        <v>0.4012692370469445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3846278798393325</v>
+        <v>0.397141548859659</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3170270390941891</v>
+        <v>0.3117703565430209</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09135203851449383</v>
+        <v>0.08787449903260035</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.168607445634804</v>
+        <v>0.1724568333234381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1738156491067698</v>
+        <v>0.1737003994898537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1297972156503691</v>
+        <v>0.1259026065006323</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1018559946788953</v>
+        <v>0.1043639435551209</v>
       </c>
     </row>
     <row r="12">
@@ -1017,31 +1017,31 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1860914194498657</v>
+        <v>0.1812530106028014</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5869493536823382</v>
+        <v>0.5858267302082567</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5552168892859397</v>
+        <v>0.5603539508695368</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.502039078676447</v>
+        <v>0.4863106877494061</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1762245882942275</v>
+        <v>0.1725118204790679</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2745263812582419</v>
+        <v>0.2739893917301806</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2707286156206892</v>
+        <v>0.2691072436179195</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2203119712283502</v>
+        <v>0.2155289905891352</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1651707231562121</v>
+        <v>0.1662444991436741</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.3599585241274434</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05910055045296872</v>
+        <v>0.05910055045296871</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2220778857275825</v>
@@ -1089,7 +1089,7 @@
         <v>0.1742184013900051</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09770718701642599</v>
+        <v>0.09770718701642597</v>
       </c>
     </row>
     <row r="14">
@@ -1103,31 +1103,31 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.1041390996247112</v>
+        <v>0.1040630773301044</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3861223891503391</v>
+        <v>0.3898135637037844</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3615246569591973</v>
+        <v>0.3663132201090016</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.293007292076981</v>
+        <v>0.2911437477784854</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0407121963549391</v>
+        <v>0.03792445472295979</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1798876467837897</v>
+        <v>0.1780963404443056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1728157726227812</v>
+        <v>0.1683317745230561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1393684168350839</v>
+        <v>0.1386405315739126</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07777990144929407</v>
+        <v>0.07412317329078552</v>
       </c>
     </row>
     <row r="15">
@@ -1141,31 +1141,31 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1856201106194317</v>
+        <v>0.1887985000548358</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5396905862273207</v>
+        <v>0.5420307822775001</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.494687511995007</v>
+        <v>0.4932824873997693</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4277983264183595</v>
+        <v>0.4269849477868859</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08724921068467945</v>
+        <v>0.08449175028196597</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2673368570751377</v>
+        <v>0.26709699117953</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2473471159214088</v>
+        <v>0.2463315803145405</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2115573432929431</v>
+        <v>0.2133502314692555</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1222197224501517</v>
+        <v>0.1209501471520607</v>
       </c>
     </row>
     <row r="16">
@@ -1233,31 +1233,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.133099822047573</v>
+        <v>0.1332956948280558</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3992711410524238</v>
+        <v>0.397207912069667</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3216843490575569</v>
+        <v>0.3210665372715517</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.068085688890598</v>
+        <v>0.06788268594634835</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1809168995807804</v>
+        <v>0.1813541235031616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1422545171796998</v>
+        <v>0.1429257416531619</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1069552107244587</v>
+        <v>0.1069449675918613</v>
       </c>
     </row>
     <row r="18">
@@ -1268,40 +1268,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01522916494479359</v>
+        <v>0.01285292768263695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.005190194607655351</v>
+        <v>0.005216628027771099</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1787948652050609</v>
+        <v>0.1789659063550549</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4729422009320348</v>
+        <v>0.47278775187846</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3969721704478334</v>
+        <v>0.3974006502527034</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09944979418986008</v>
+        <v>0.09814593360435141</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2216964280656009</v>
+        <v>0.2217693350566452</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.183413171121515</v>
+        <v>0.1821534292901136</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1344051647187526</v>
+        <v>0.1357049316735988</v>
       </c>
     </row>
     <row r="19">
@@ -1579,31 +1579,31 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>30222</v>
+        <v>30249</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>40402</v>
+        <v>41142</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>59215</v>
+        <v>59758</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39529</v>
+        <v>40040</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10437</v>
+        <v>10429</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40177</v>
+        <v>41321</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>57403</v>
+        <v>59414</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>39100</v>
+        <v>40218</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>43742</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="7">
@@ -1614,38 +1614,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4787</v>
+        <v>5055</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10828</v>
+        <v>10300</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>50049</v>
+        <v>49625</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>62843</v>
+        <v>63212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>85221</v>
+        <v>85343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>64208</v>
+        <v>64433</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20637</v>
+        <v>20235</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65433</v>
+        <v>67902</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>89457</v>
+        <v>90416</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>65352</v>
+        <v>67291</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>66000</v>
+        <v>65277</v>
       </c>
     </row>
     <row r="8">
@@ -1757,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24387</v>
+        <v>24223</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78324</v>
+        <v>78352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>71203</v>
+        <v>71595</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>55072</v>
+        <v>54050</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10356</v>
+        <v>10618</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>75452</v>
+        <v>76704</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>69672</v>
+        <v>70936</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>54298</v>
+        <v>53975</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>38571</v>
+        <v>38713</v>
       </c>
     </row>
     <row r="11">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4275</v>
+        <v>5897</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5816</v>
+        <v>5157</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5578</v>
+        <v>4264</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44597</v>
+        <v>44350</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>103481</v>
+        <v>102733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>101464</v>
+        <v>100497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>83956</v>
+        <v>83755</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21859</v>
+        <v>22295</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>109899</v>
+        <v>110637</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>104453</v>
+        <v>104593</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>88108</v>
+        <v>87058</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>62931</v>
+        <v>61609</v>
       </c>
     </row>
     <row r="12">
@@ -1931,31 +1931,31 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>21147</v>
+        <v>20541</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>48216</v>
+        <v>48075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>56876</v>
+        <v>58727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42943</v>
+        <v>42231</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14831</v>
+        <v>14266</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>46231</v>
+        <v>47286</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>55032</v>
+        <v>54996</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>41214</v>
+        <v>39977</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39601</v>
+        <v>40576</v>
       </c>
     </row>
     <row r="15">
@@ -1969,31 +1969,31 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>42141</v>
+        <v>41045</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>70321</v>
+        <v>70186</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>82102</v>
+        <v>82861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68003</v>
+        <v>65873</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28609</v>
+        <v>28006</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>75273</v>
+        <v>75125</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>85716</v>
+        <v>85203</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>69955</v>
+        <v>68436</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>64218</v>
+        <v>64636</v>
       </c>
     </row>
     <row r="16">
@@ -2099,31 +2099,31 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>24143</v>
+        <v>24125</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>68053</v>
+        <v>68704</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>81140</v>
+        <v>82215</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>72845</v>
+        <v>72382</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10453</v>
+        <v>9737</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>65858</v>
+        <v>65202</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>81069</v>
+        <v>78966</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>71589</v>
+        <v>71215</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>38002</v>
+        <v>36215</v>
       </c>
     </row>
     <row r="19">
@@ -2137,31 +2137,31 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>43032</v>
+        <v>43769</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>95119</v>
+        <v>95532</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>111027</v>
+        <v>110711</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>106356</v>
+        <v>106154</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22401</v>
+        <v>21693</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>97874</v>
+        <v>97786</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>116033</v>
+        <v>115556</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>108670</v>
+        <v>109591</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>59714</v>
+        <v>59094</v>
       </c>
     </row>
     <row r="20">
@@ -2273,31 +2273,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>116389</v>
+        <v>116560</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>297891</v>
+        <v>296351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>237095</v>
+        <v>236640</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>54731</v>
+        <v>54567</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>292579</v>
+        <v>293286</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>233052</v>
+        <v>234152</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>179503</v>
+        <v>179486</v>
       </c>
     </row>
     <row r="23">
@@ -2308,40 +2308,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13266</v>
+        <v>11196</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4678</v>
+        <v>4701</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>156347</v>
+        <v>156497</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>352856</v>
+        <v>352740</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>292585</v>
+        <v>292901</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>79943</v>
+        <v>78894</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>358528</v>
+        <v>358646</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>300481</v>
+        <v>298417</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>225572</v>
+        <v>227753</v>
       </c>
     </row>
     <row r="24">
